--- a/data/trans_dic/P18_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P18_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido sola en algún momento o más en la última semana</t>
+          <t>Población que se ha sentido sola en algún momento o más en la última semana (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>72,54%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>79,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>76,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>74,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>74,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>57,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>72,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>68,34%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>77,75%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>39,76%</t>
+          <t>63,11%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>67,96%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>64,81%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>60,24%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>68,1%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>70,55%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>78,44%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>69,75%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>71,24%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>69,67%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>58,77%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>70,37%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,64; 34,29</t>
+          <t>65,38; 78,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,23; 28,06</t>
+          <t>71,71; 85,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,82; 29,91</t>
+          <t>67,01; 83,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,45; 31,65</t>
+          <t>65,38; 82,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,81; 52,84</t>
+          <t>64,59; 82,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,06; 40,06</t>
+          <t>47,76; 67,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,41; 30,49</t>
+          <t>61,99; 81,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,7; 44,53</t>
+          <t>60,63; 75,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,61; 39,43</t>
+          <t>70,21; 83,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>31,06; 50,18</t>
+          <t>55,35; 70,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,58; 35,02</t>
+          <t>60,29; 74,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,44; 27,32</t>
+          <t>56,75; 73,26</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>23,83; 34,23</t>
+          <t>50,75; 69,77</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,97; 33,38</t>
+          <t>58,98; 76,32</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>34,04; 47,76</t>
+          <t>65,65; 75,48</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>73,78; 82,97</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>64,14; 74,83</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>65,31; 76,81</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>62,73; 75,22</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>51,99; 65,88</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>63,22; 75,94</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>84,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>89,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>78,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>66,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>75,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>67,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>78,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>75,62%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>71,07%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>69,45%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>69,15%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>67,48%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>81,4%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>84,63%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>76,94%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>78,68%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>68,03%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>72,2%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>67,31%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 21,93</t>
+          <t>77,29; 89,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 15,95</t>
+          <t>83,9; 93,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 30,39</t>
+          <t>65,95; 85,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,29; 20,2</t>
+          <t>79,5; 89,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,61; 33,35</t>
+          <t>47,59; 78,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,66; 27,53</t>
+          <t>66,45; 82,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,98; 26,56</t>
+          <t>57,56; 75,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,7; 30,03</t>
+          <t>71,75; 83,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,11; 35,09</t>
+          <t>72,71; 84,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,82; 38,23</t>
+          <t>69,57; 80,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,11; 23,38</t>
+          <t>65,21; 77,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,01; 19,32</t>
+          <t>62,06; 76,31</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>18,01; 28,41</t>
+          <t>61,54; 75,94</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,89; 25,16</t>
+          <t>59,99; 74,31</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>22,13; 33,01</t>
+          <t>77,05; 85,36</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>80,59; 88,31</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>69,9; 81,45</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>74,43; 82,48</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>56,52; 75,14</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>66,18; 77,38</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>61,26; 73,58</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>80,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>83,32%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>79,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>75,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>73,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>75,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>66,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>77,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>82,83%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>81,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>73,82%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>70,66%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>75,67%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>67,0%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>79,33%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>83,07%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>80,48%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>74,87%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>72,25%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>75,62%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>66,73%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 24,65</t>
+          <t>75,02; 85,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,09; 30,74</t>
+          <t>77,26; 87,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,7; 26,49</t>
+          <t>73,79; 84,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,73; 31,44</t>
+          <t>68,39; 81,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,67; 31,95</t>
+          <t>65,48; 80,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,66; 27,43</t>
+          <t>68,08; 81,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,18; 22,11</t>
+          <t>58,49; 73,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,82; 23,18</t>
+          <t>72,96; 82,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,14; 30,78</t>
+          <t>77,99; 87,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,55; 31,02</t>
+          <t>77,02; 85,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,23; 24,26</t>
+          <t>69,06; 78,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,96; 24,69</t>
+          <t>64,76; 75,41</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>16,52; 23,43</t>
+          <t>69,71; 80,43</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>21,53; 29,78</t>
+          <t>59,74; 72,96</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>20,44; 28,49</t>
+          <t>75,44; 82,62</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>79,27; 86,22</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>77,08; 83,3</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>69,96; 78,49</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>67,58; 76,85</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>71,34; 79,61</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>60,92; 71,64</t>
         </is>
       </c>
     </row>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>85,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>83,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>77,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>76,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>70,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>62,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>65,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>78,09%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>73,05%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>66,64%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>66,86%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>62,31%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>61,84%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>79,27%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>80,81%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>75,35%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>71,66%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>68,43%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>62,53%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>63,57%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,94; 19,18</t>
+          <t>80,98; 88,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,31; 22,79</t>
+          <t>76,68; 88,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,81; 28,57</t>
+          <t>71,32; 82,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,39; 28,92</t>
+          <t>70,3; 82,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,98; 44,83</t>
+          <t>61,6; 75,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,17; 31,53</t>
+          <t>54,91; 69,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,99; 26,67</t>
+          <t>58,19; 71,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,62; 31,68</t>
+          <t>68,71; 78,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,43; 37,75</t>
+          <t>72,71; 82,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,63; 44,79</t>
+          <t>67,97; 77,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,82; 24,1</t>
+          <t>62,02; 71,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,69; 22,97</t>
+          <t>60,93; 71,96</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>21,67; 28,62</t>
+          <t>55,44; 68,52</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>24,51; 31,67</t>
+          <t>55,02; 67,76</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>32,7; 42,87</t>
+          <t>76,04; 82,22</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>76,77; 84,19</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>71,65; 78,6</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>67,68; 75,23</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>64,09; 72,35</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>56,84; 67,49</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>58,36; 67,76</t>
         </is>
       </c>
     </row>
@@ -1360,77 +1649,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>84,55%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>83,42%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>76,43%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>76,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>67,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
+          <t>76,08%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>30,44%</t>
+          <t>74,97%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>77,17%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>69,3%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>69,75%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>67,58%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>58,52%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>82,5%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>79,71%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>80,29%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>76,26%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>73,02%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>71,84%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>62,73%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 15,79</t>
+          <t>84,21; 92,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,65; 22,43</t>
+          <t>77,83; 89,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,88; 22,42</t>
+          <t>77,36; 87,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,08; 22,21</t>
+          <t>77,54; 87,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,43; 30,18</t>
+          <t>69,34; 82,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,59; 30,33</t>
+          <t>69,57; 82,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,14; 31,49</t>
+          <t>59,97; 74,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,92; 27,9</t>
+          <t>70,23; 81,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,26; 36,55</t>
+          <t>68,81; 80,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,45; 38,56</t>
+          <t>71,61; 81,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,35; 21,52</t>
+          <t>63,33; 74,81</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,31; 24,38</t>
+          <t>62,56; 75,82</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,07; 23,93</t>
+          <t>61,56; 73,97</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,82; 27,76</t>
+          <t>51,16; 64,8</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>23,71; 32,77</t>
+          <t>79,0; 86,11</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>75,56; 83,39</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>75,93; 83,79</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>72,48; 80,08</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>68,42; 77,25</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>67,04; 76,31</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>57,01; 67,43</t>
         </is>
       </c>
     </row>
@@ -1530,77 +1879,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>83,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>82,23%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>81,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>80,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>75,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>81,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>66,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>79,14%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>74,28%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>36,31%</t>
+          <t>67,92%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>68,16%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>61,52%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>63,7%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>55,35%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>81,17%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>77,67%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>73,6%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>73,43%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>67,77%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>71,39%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>60,2%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,22; 24,15</t>
+          <t>76,92; 88,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,5; 29,19</t>
+          <t>71,08; 89,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,82; 30,59</t>
+          <t>71,99; 86,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,79; 28,53</t>
+          <t>72,76; 86,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,56; 26,36</t>
+          <t>67,18; 82,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,02; 25,21</t>
+          <t>73,87; 88,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,15; 33,9</t>
+          <t>59,17; 74,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,08; 38,24</t>
+          <t>74,2; 83,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,48; 36,88</t>
+          <t>67,79; 79,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>27,83; 45,2</t>
+          <t>62,07; 73,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,29; 23,04</t>
+          <t>60,81; 74,46</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,2; 28,43</t>
+          <t>51,9; 69,0</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>21,85; 31,39</t>
+          <t>53,66; 71,51</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>20,98; 30,96</t>
+          <t>46,97; 63,91</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>23,43; 35,23</t>
+          <t>77,3; 84,59</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>71,58; 82,18</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>68,99; 78,13</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>67,74; 77,74</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>61,49; 73,69</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>64,91; 76,98</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>53,57; 65,69</t>
         </is>
       </c>
     </row>
@@ -1700,77 +2109,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>82,66%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>83,84%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>79,29%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>79,28%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>72,72%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>71,59%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>67,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>75,91%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>77,94%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>73,25%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>69,56%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>67,05%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>66,63%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>62,55%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>30,89%</t>
+          <t>79,21%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>80,82%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>76,19%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>74,31%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>69,83%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>69,11%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>64,95%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,14; 19,44</t>
+          <t>80,39; 84,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,04; 19,78</t>
+          <t>81,14; 86,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,91; 23,36</t>
+          <t>76,32; 81,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,9; 23,11</t>
+          <t>76,42; 81,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,31; 31,71</t>
+          <t>68,2; 76,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,04; 26,33</t>
+          <t>68,36; 74,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,98; 24,72</t>
+          <t>64,24; 70,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,16; 28,68</t>
+          <t>73,69; 78,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,56; 32,4</t>
+          <t>75,5; 80,07</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,48; 36,55</t>
+          <t>71,04; 75,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>19,25; 22,47</t>
+          <t>67,14; 71,86</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,87; 21,55</t>
+          <t>64,18; 69,82</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>21,92; 25,51</t>
+          <t>63,61; 69,75</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>23,51; 26,98</t>
+          <t>59,42; 65,25</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>28,69; 33,05</t>
+          <t>77,52; 80,78</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>78,89; 82,58</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>74,07; 77,86</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>72,43; 76,12</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>67,17; 72,32</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>66,94; 71,18</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>62,81; 67,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido sola en algún momento o más en la última semana (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>372131</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>397083</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>397716</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>377115</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>351471</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24173</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31563</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>316322</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>364471</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>324982</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>349311</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>309298</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>22530</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>26252</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>688453</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>761554</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>722698</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>726427</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>660769</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>46703</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>57815</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>335376; 404498</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>360012; 427191</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>349226; 433499</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>330584; 419039</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>304329; 386807</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20093; 28471</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27032; 35426</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>280622; 347507</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>329130; 393648</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>285004; 361609</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>309890; 383310</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>270818; 349611</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18979; 26091</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>22740; 29421</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>640622; 736523</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>716345; 805555</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>664590; 775298</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>665880; 783195</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>594983; 713423</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>41319; 52361</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>51944; 62390</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>474397</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>513912</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>441852</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>507072</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>387381</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>37450</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>32911</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>404715</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>410583</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>384154</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>367684</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>350770</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>32643</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>31044</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>879112</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>924494</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>826006</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>874757</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>738151</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>70093</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>63955</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>435461; 503056</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>480977; 538283</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>372963; 481964</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>472525; 534145</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>275949; 456316</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>33142; 41045</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28205; 37117</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>370626; 432248</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>377385; 438966</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>353434; 409940</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>337371; 398656</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>313488; 385426</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>29051; 35849</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>27599; 34186</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>832134; 921843</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>880372; 964611</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>750419; 874376</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>827506; 916947</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>613188; 815303</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>64254; 75127</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>58206; 69904</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>467.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>414.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>514.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>497.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>546560</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>571877</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>541374</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>513519</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>499898</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>45507</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>40408</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>540299</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>590101</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>584689</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>525638</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>506920</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>40799</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>36751</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1086858</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1161978</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1126063</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>1039157</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>1006818</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>86306</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>77159</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>507055; 579609</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>530315; 600727</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>502295; 574709</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>462322; 552779</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>442706; 543402</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>40993; 48780</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35542; 44810</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>506487; 571143</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>555662; 620174</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>553367; 611868</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>491687; 557638</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>464647; 541009</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>37586; 43366</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>32769; 40019</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1033576; 1131998</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1108880; 1206037</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1078453; 1165519</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>971064; 1089497</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>941805; 1070884</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>81422; 90858</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>70432; 82835</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>514.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>460.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>390.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>545070</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>537662</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>502207</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>490997</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>460734</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>36555</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>36967</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>517093</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>533864</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>491885</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>438414</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>442237</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>32667</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>33093</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1062163</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1071526</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>994093</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>929411</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>902971</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>69223</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>70060</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>517031; 566303</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>492540; 568785</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>460728; 529992</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>449237; 527694</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>405425; 498133</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>31994; 40740</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>32990; 40513</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>481937; 547081</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>497098; 563032</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>457684; 521104</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>408038; 469731</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>402992; 475962</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>29064; 35921</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>29441; 36259</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1018800; 1101626</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1017959; 1116350</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>945241; 1037049</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>877830; 975704</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>845724; 954729</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>62919; 74708</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>64317; 74675</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>394.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>417.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>399.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>271.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>452827</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>418797</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>418889</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>412093</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>375303</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>34032</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>30253</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>382262</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>378598</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>388282</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>355759</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>356671</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>32792</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>27126</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>835089</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>797395</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>807170</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>767853</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>731975</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>66823</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>57379</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>429284; 470913</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>385525; 441751</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>388450; 441450</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>382634; 432664</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>340528; 404146</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>30950; 36805</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>27058; 33401</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>352870; 409621</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>347473; 407107</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>360315; 412177</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>325140; 384044</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>319905; 387712</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>29870; 35896</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>23718; 30038</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>799695; 871596</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>755873; 834193</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>763297; 842296</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>729755; 806252</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>685921; 774415</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>62354; 70977</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>52145; 61679</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>412.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>331.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>456778</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>436912</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>420990</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>423874</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>428822</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>38305</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>30685</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>578603</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>528528</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>468687</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>465276</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>442722</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>40373</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>35241</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1035381</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>965441</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>889677</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>889150</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>871544</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>78677</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>65925</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>418825; 484516</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>377711; 476857</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>373531; 449065</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>384294; 457763</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>380519; 467218</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>34597; 41259</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>27125; 34154</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>542456; 609236</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>482395; 566903</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>428260; 509791</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>415129; 508295</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>373483; 496551</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>34006; 45322</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>29908; 40691</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>986080; 1078999</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>889729; 1021418</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>833971; 944450</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>820246; 941323</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>790794; 947696</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>71537; 84847</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>58671; 71946</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1117.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>971.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1091.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1082.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>784.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>669.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>621.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1223.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1052.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1218.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1163.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>864.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>739.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>702.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>2340.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>2023.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>2309.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>2245.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>1648.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>1408.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>1323.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2847762</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2876244</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2723029</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2724671</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2503609</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>216021</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>202785</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2739294</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2806145</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2642679</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2502083</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2408619</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>201804</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>189508</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>5587056</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>5682388</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>5365708</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>5226754</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>4912228</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>417825</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>392293</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2769539; 2921165</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2783809; 2956026</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2621090; 2810870</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2626250; 2808020</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2347885; 2626004</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>206270; 225744</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>193375; 212406</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2659076; 2819844</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2718349; 2882945</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2562919; 2729993</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2415264; 2584971</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2305547; 2508201</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>192653; 211248</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>180028; 197676</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>5467583; 5698017</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>5546959; 5806235</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>5216407; 5482835</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>5094723; 5354406</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>4725290; 5087822</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>404733; 430381</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>379386; 406907</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>